--- a/data/trans_orig/IP07A25_2023-Estudios-trans_orig.xlsx
+++ b/data/trans_orig/IP07A25_2023-Estudios-trans_orig.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS_menores\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{76BD6FAB-349B-422E-92E5-13A7FC13661E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{799BEF0B-5412-4160-8713-DD0EC3F5A902}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{68974270-F95B-4AD2-9ADF-55F2F02C2F46}"/>
+    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{5261F7AD-EA90-4C96-8D88-AE3A53FC6F54}"/>
   </bookViews>
   <sheets>
     <sheet name="2023" sheetId="2" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="264" uniqueCount="174">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="264" uniqueCount="175">
   <si>
     <t>Menores según frecuencia de haberle ido bien en el colegio en 2023 (Tasa respuesta: 50,16%)</t>
   </si>
@@ -74,28 +74,28 @@
     <t>32,38%</t>
   </si>
   <si>
-    <t>18,12%</t>
-  </si>
-  <si>
-    <t>52,63%</t>
+    <t>17,57%</t>
+  </si>
+  <si>
+    <t>51,47%</t>
   </si>
   <si>
     <t>73,45%</t>
   </si>
   <si>
-    <t>55,72%</t>
-  </si>
-  <si>
-    <t>86,05%</t>
+    <t>56,36%</t>
+  </si>
+  <si>
+    <t>86,44%</t>
   </si>
   <si>
     <t>53,43%</t>
   </si>
   <si>
-    <t>41,32%</t>
-  </si>
-  <si>
-    <t>68,25%</t>
+    <t>40,07%</t>
+  </si>
+  <si>
+    <t>66,75%</t>
   </si>
   <si>
     <t>Mucho</t>
@@ -104,28 +104,28 @@
     <t>33,15%</t>
   </si>
   <si>
-    <t>19,84%</t>
-  </si>
-  <si>
-    <t>53,7%</t>
+    <t>18,33%</t>
+  </si>
+  <si>
+    <t>52,59%</t>
   </si>
   <si>
     <t>17,48%</t>
   </si>
   <si>
-    <t>8,01%</t>
-  </si>
-  <si>
-    <t>33,31%</t>
+    <t>7,09%</t>
+  </si>
+  <si>
+    <t>33,68%</t>
   </si>
   <si>
     <t>25,12%</t>
   </si>
   <si>
-    <t>14,46%</t>
-  </si>
-  <si>
-    <t>36,16%</t>
+    <t>15,45%</t>
+  </si>
+  <si>
+    <t>37,73%</t>
   </si>
   <si>
     <t>Moderadamente</t>
@@ -134,28 +134,28 @@
     <t>25,13%</t>
   </si>
   <si>
-    <t>11,34%</t>
-  </si>
-  <si>
-    <t>43,83%</t>
+    <t>13,06%</t>
+  </si>
+  <si>
+    <t>47,8%</t>
   </si>
   <si>
     <t>9,08%</t>
   </si>
   <si>
-    <t>2,51%</t>
-  </si>
-  <si>
-    <t>20,87%</t>
+    <t>2,57%</t>
+  </si>
+  <si>
+    <t>22,34%</t>
   </si>
   <si>
     <t>16,9%</t>
   </si>
   <si>
-    <t>9,13%</t>
-  </si>
-  <si>
-    <t>27,21%</t>
+    <t>8,51%</t>
+  </si>
+  <si>
+    <t>27,69%</t>
   </si>
   <si>
     <t>Un Poco</t>
@@ -167,7 +167,7 @@
     <t>0,0%</t>
   </si>
   <si>
-    <t>33,3%</t>
+    <t>32,63%</t>
   </si>
   <si>
     <t>0%</t>
@@ -179,7 +179,7 @@
     <t>4,55%</t>
   </si>
   <si>
-    <t>17,7%</t>
+    <t>16,24%</t>
   </si>
   <si>
     <t>Nada</t>
@@ -200,103 +200,106 @@
     <t>47,61%</t>
   </si>
   <si>
-    <t>41,43%</t>
-  </si>
-  <si>
-    <t>54,01%</t>
+    <t>40,75%</t>
+  </si>
+  <si>
+    <t>53,31%</t>
   </si>
   <si>
     <t>58,49%</t>
   </si>
   <si>
-    <t>50,66%</t>
-  </si>
-  <si>
-    <t>63,93%</t>
+    <t>51,12%</t>
+  </si>
+  <si>
+    <t>64,51%</t>
   </si>
   <si>
     <t>52,62%</t>
   </si>
   <si>
-    <t>47,93%</t>
-  </si>
-  <si>
-    <t>56,85%</t>
+    <t>47,89%</t>
+  </si>
+  <si>
+    <t>56,68%</t>
   </si>
   <si>
     <t>34,01%</t>
   </si>
   <si>
-    <t>28,7%</t>
-  </si>
-  <si>
-    <t>40,08%</t>
+    <t>28,33%</t>
+  </si>
+  <si>
+    <t>39,44%</t>
   </si>
   <si>
     <t>29,2%</t>
   </si>
   <si>
-    <t>24,28%</t>
-  </si>
-  <si>
-    <t>34,82%</t>
+    <t>23,35%</t>
+  </si>
+  <si>
+    <t>34,02%</t>
   </si>
   <si>
     <t>31,79%</t>
   </si>
   <si>
-    <t>27,83%</t>
-  </si>
-  <si>
-    <t>36,23%</t>
+    <t>28,0%</t>
+  </si>
+  <si>
+    <t>35,93%</t>
   </si>
   <si>
     <t>13,81%</t>
   </si>
   <si>
-    <t>9,1%</t>
-  </si>
-  <si>
-    <t>21,32%</t>
+    <t>9,6%</t>
+  </si>
+  <si>
+    <t>22,71%</t>
   </si>
   <si>
     <t>10,33%</t>
   </si>
   <si>
-    <t>6,04%</t>
-  </si>
-  <si>
-    <t>20,9%</t>
+    <t>6,25%</t>
+  </si>
+  <si>
+    <t>24,17%</t>
   </si>
   <si>
     <t>12,21%</t>
   </si>
   <si>
-    <t>8,82%</t>
+    <t>8,92%</t>
+  </si>
+  <si>
+    <t>18,14%</t>
   </si>
   <si>
     <t>2,08%</t>
   </si>
   <si>
-    <t>1,0%</t>
-  </si>
-  <si>
-    <t>3,94%</t>
+    <t>0,99%</t>
+  </si>
+  <si>
+    <t>3,76%</t>
   </si>
   <si>
     <t>1,98%</t>
   </si>
   <si>
-    <t>0,93%</t>
-  </si>
-  <si>
-    <t>4,07%</t>
+    <t>0,78%</t>
+  </si>
+  <si>
+    <t>4,01%</t>
   </si>
   <si>
     <t>2,03%</t>
   </si>
   <si>
-    <t>1,11%</t>
+    <t>1,21%</t>
   </si>
   <si>
     <t>3,19%</t>
@@ -305,118 +308,118 @@
     <t>2,49%</t>
   </si>
   <si>
+    <t>0,92%</t>
+  </si>
+  <si>
+    <t>6,86%</t>
+  </si>
+  <si>
+    <t>0,58%</t>
+  </si>
+  <si>
+    <t>1,34%</t>
+  </si>
+  <si>
+    <t>0,51%</t>
+  </si>
+  <si>
+    <t>3,37%</t>
+  </si>
+  <si>
+    <t>Universitarios</t>
+  </si>
+  <si>
+    <t>63,96%</t>
+  </si>
+  <si>
+    <t>54,04%</t>
+  </si>
+  <si>
+    <t>71,6%</t>
+  </si>
+  <si>
+    <t>58,12%</t>
+  </si>
+  <si>
+    <t>49,05%</t>
+  </si>
+  <si>
+    <t>68,24%</t>
+  </si>
+  <si>
+    <t>61,28%</t>
+  </si>
+  <si>
+    <t>55,23%</t>
+  </si>
+  <si>
+    <t>67,69%</t>
+  </si>
+  <si>
+    <t>26,99%</t>
+  </si>
+  <si>
+    <t>19,81%</t>
+  </si>
+  <si>
+    <t>36,11%</t>
+  </si>
+  <si>
+    <t>38,31%</t>
+  </si>
+  <si>
+    <t>28,87%</t>
+  </si>
+  <si>
+    <t>47,4%</t>
+  </si>
+  <si>
+    <t>32,18%</t>
+  </si>
+  <si>
+    <t>26,19%</t>
+  </si>
+  <si>
+    <t>37,85%</t>
+  </si>
+  <si>
+    <t>4,27%</t>
+  </si>
+  <si>
+    <t>15,89%</t>
+  </si>
+  <si>
+    <t>2,66%</t>
+  </si>
+  <si>
+    <t>0,71%</t>
+  </si>
+  <si>
+    <t>6,99%</t>
+  </si>
+  <si>
+    <t>5,83%</t>
+  </si>
+  <si>
+    <t>3,13%</t>
+  </si>
+  <si>
+    <t>9,54%</t>
+  </si>
+  <si>
+    <t>0,54%</t>
+  </si>
+  <si>
+    <t>3,27%</t>
+  </si>
+  <si>
     <t>0,91%</t>
   </si>
   <si>
-    <t>6,38%</t>
-  </si>
-  <si>
-    <t>0,58%</t>
-  </si>
-  <si>
-    <t>1,34%</t>
-  </si>
-  <si>
-    <t>0,48%</t>
-  </si>
-  <si>
-    <t>3,54%</t>
-  </si>
-  <si>
-    <t>Universitarios</t>
-  </si>
-  <si>
-    <t>63,96%</t>
-  </si>
-  <si>
-    <t>54,11%</t>
-  </si>
-  <si>
-    <t>72,56%</t>
-  </si>
-  <si>
-    <t>58,12%</t>
-  </si>
-  <si>
-    <t>67,51%</t>
-  </si>
-  <si>
-    <t>61,28%</t>
-  </si>
-  <si>
-    <t>54,3%</t>
-  </si>
-  <si>
-    <t>67,5%</t>
-  </si>
-  <si>
-    <t>26,99%</t>
-  </si>
-  <si>
-    <t>18,85%</t>
-  </si>
-  <si>
-    <t>36,45%</t>
-  </si>
-  <si>
-    <t>38,31%</t>
-  </si>
-  <si>
-    <t>29,57%</t>
-  </si>
-  <si>
-    <t>48,81%</t>
-  </si>
-  <si>
-    <t>32,18%</t>
-  </si>
-  <si>
-    <t>26,14%</t>
-  </si>
-  <si>
-    <t>38,33%</t>
-  </si>
-  <si>
-    <t>8,51%</t>
-  </si>
-  <si>
-    <t>3,8%</t>
-  </si>
-  <si>
-    <t>15,07%</t>
-  </si>
-  <si>
-    <t>2,66%</t>
-  </si>
-  <si>
-    <t>0,7%</t>
-  </si>
-  <si>
-    <t>6,56%</t>
-  </si>
-  <si>
-    <t>5,83%</t>
-  </si>
-  <si>
-    <t>3,34%</t>
-  </si>
-  <si>
-    <t>10,11%</t>
-  </si>
-  <si>
-    <t>0,54%</t>
-  </si>
-  <si>
-    <t>2,69%</t>
-  </si>
-  <si>
-    <t>4,7%</t>
-  </si>
-  <si>
-    <t>0,71%</t>
-  </si>
-  <si>
-    <t>2,61%</t>
+    <t>4,67%</t>
+  </si>
+  <si>
+    <t>2,52%</t>
   </si>
   <si>
     <t>1,56%</t>
@@ -431,118 +434,118 @@
     <t>50,47%</t>
   </si>
   <si>
-    <t>44,89%</t>
-  </si>
-  <si>
-    <t>55,35%</t>
+    <t>44,86%</t>
+  </si>
+  <si>
+    <t>55,3%</t>
   </si>
   <si>
     <t>59,56%</t>
   </si>
   <si>
-    <t>54,04%</t>
-  </si>
-  <si>
-    <t>64,2%</t>
+    <t>53,66%</t>
+  </si>
+  <si>
+    <t>64,21%</t>
   </si>
   <si>
     <t>54,69%</t>
   </si>
   <si>
-    <t>50,9%</t>
-  </si>
-  <si>
-    <t>57,71%</t>
+    <t>50,55%</t>
+  </si>
+  <si>
+    <t>57,92%</t>
   </si>
   <si>
     <t>32,31%</t>
   </si>
   <si>
-    <t>28,27%</t>
-  </si>
-  <si>
-    <t>37,44%</t>
+    <t>27,79%</t>
+  </si>
+  <si>
+    <t>36,77%</t>
   </si>
   <si>
     <t>30,38%</t>
   </si>
   <si>
-    <t>26,45%</t>
-  </si>
-  <si>
-    <t>34,75%</t>
+    <t>26,29%</t>
+  </si>
+  <si>
+    <t>34,83%</t>
   </si>
   <si>
     <t>31,42%</t>
   </si>
   <si>
-    <t>28,15%</t>
-  </si>
-  <si>
-    <t>34,3%</t>
+    <t>28,35%</t>
+  </si>
+  <si>
+    <t>34,71%</t>
   </si>
   <si>
     <t>13,29%</t>
   </si>
   <si>
-    <t>9,77%</t>
-  </si>
-  <si>
-    <t>19,03%</t>
+    <t>10,05%</t>
+  </si>
+  <si>
+    <t>19,18%</t>
   </si>
   <si>
     <t>8,47%</t>
   </si>
   <si>
-    <t>5,17%</t>
-  </si>
-  <si>
-    <t>16,93%</t>
+    <t>5,19%</t>
+  </si>
+  <si>
+    <t>16,95%</t>
   </si>
   <si>
     <t>11,05%</t>
   </si>
   <si>
-    <t>8,52%</t>
-  </si>
-  <si>
-    <t>15,41%</t>
+    <t>8,55%</t>
+  </si>
+  <si>
+    <t>15,54%</t>
   </si>
   <si>
     <t>2,18%</t>
   </si>
   <si>
-    <t>1,14%</t>
-  </si>
-  <si>
-    <t>3,93%</t>
+    <t>1,12%</t>
+  </si>
+  <si>
+    <t>4,04%</t>
   </si>
   <si>
     <t>1,58%</t>
   </si>
   <si>
-    <t>0,75%</t>
-  </si>
-  <si>
-    <t>3,26%</t>
+    <t>0,68%</t>
+  </si>
+  <si>
+    <t>2,98%</t>
   </si>
   <si>
     <t>1,9%</t>
   </si>
   <si>
-    <t>1,1%</t>
-  </si>
-  <si>
-    <t>2,91%</t>
+    <t>1,17%</t>
+  </si>
+  <si>
+    <t>2,99%</t>
   </si>
   <si>
     <t>1,75%</t>
   </si>
   <si>
-    <t>0,55%</t>
-  </si>
-  <si>
-    <t>4,22%</t>
+    <t>0,57%</t>
+  </si>
+  <si>
+    <t>4,59%</t>
   </si>
   <si>
     <t>0,4%</t>
@@ -551,10 +554,10 @@
     <t>0,94%</t>
   </si>
   <si>
-    <t>0,33%</t>
-  </si>
-  <si>
-    <t>2,38%</t>
+    <t>0,37%</t>
+  </si>
+  <si>
+    <t>2,42%</t>
   </si>
   <si>
     <t>Fuente: Encuesta Andaluza de Salud (menores)</t>
@@ -969,7 +972,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{178F3281-CD06-4D2D-98C5-8B72F9EE6009}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2CE65F0E-B00C-466D-8C3A-044DCA38396A}">
   <dimension ref="A1:Q28"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -1539,7 +1542,7 @@
         <v>78</v>
       </c>
       <c r="Q12" s="7" t="s">
-        <v>12</v>
+        <v>79</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
@@ -1554,13 +1557,13 @@
         <v>6084</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="H13" s="7">
         <v>7</v>
@@ -1569,13 +1572,13 @@
         <v>4958</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="M13" s="7">
         <v>16</v>
@@ -1584,13 +1587,13 @@
         <v>11041</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -1605,13 +1608,13 @@
         <v>7288</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="H14" s="7">
         <v>0</v>
@@ -1626,7 +1629,7 @@
         <v>44</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="M14" s="7">
         <v>6</v>
@@ -1635,13 +1638,13 @@
         <v>7288</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -1697,7 +1700,7 @@
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="B16" s="5" t="s">
         <v>10</v>
@@ -1709,13 +1712,13 @@
         <v>62608</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="H16" s="7">
         <v>66</v>
@@ -1724,13 +1727,13 @@
         <v>48250</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>60</v>
+        <v>101</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
       <c r="M16" s="7">
         <v>142</v>
@@ -1739,13 +1742,13 @@
         <v>110858</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -1760,13 +1763,13 @@
         <v>26420</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>104</v>
+        <v>106</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="H17" s="7">
         <v>44</v>
@@ -1775,13 +1778,13 @@
         <v>31802</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>107</v>
+        <v>109</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>108</v>
+        <v>110</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>109</v>
+        <v>111</v>
       </c>
       <c r="M17" s="7">
         <v>79</v>
@@ -1790,13 +1793,13 @@
         <v>58222</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>111</v>
+        <v>113</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>112</v>
+        <v>114</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -1811,13 +1814,13 @@
         <v>8332</v>
       </c>
       <c r="E18" s="7" t="s">
-        <v>113</v>
+        <v>38</v>
       </c>
       <c r="F18" s="7" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="G18" s="7" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="H18" s="7">
         <v>3</v>
@@ -1826,13 +1829,13 @@
         <v>2206</v>
       </c>
       <c r="J18" s="7" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="K18" s="7" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="L18" s="7" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="M18" s="7">
         <v>13</v>
@@ -1841,13 +1844,13 @@
         <v>10538</v>
       </c>
       <c r="O18" s="7" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="P18" s="7" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="Q18" s="7" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
@@ -1862,13 +1865,13 @@
         <v>533</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="F19" s="7" t="s">
         <v>42</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="H19" s="7">
         <v>1</v>
@@ -1877,13 +1880,13 @@
         <v>759</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>89</v>
+        <v>125</v>
       </c>
       <c r="K19" s="7" t="s">
         <v>42</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>124</v>
+        <v>126</v>
       </c>
       <c r="M19" s="7">
         <v>2</v>
@@ -1892,13 +1895,13 @@
         <v>1292</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>125</v>
+        <v>118</v>
       </c>
       <c r="P19" s="7" t="s">
         <v>42</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -1919,7 +1922,7 @@
         <v>44</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="H20" s="7">
         <v>0</v>
@@ -1934,7 +1937,7 @@
         <v>44</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="M20" s="7">
         <v>0</v>
@@ -1949,7 +1952,7 @@
         <v>44</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -2017,13 +2020,13 @@
         <v>210795</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="H22" s="7">
         <v>281</v>
@@ -2032,13 +2035,13 @@
         <v>215135</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="M22" s="7">
         <v>527</v>
@@ -2047,13 +2050,13 @@
         <v>425930</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -2068,13 +2071,13 @@
         <v>134933</v>
       </c>
       <c r="E23" s="7" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="F23" s="7" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="G23" s="7" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="H23" s="7">
         <v>156</v>
@@ -2083,13 +2086,13 @@
         <v>109744</v>
       </c>
       <c r="J23" s="7" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="K23" s="7" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="L23" s="7" t="s">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="M23" s="7">
         <v>325</v>
@@ -2098,13 +2101,13 @@
         <v>244677</v>
       </c>
       <c r="O23" s="7" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="P23" s="7" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="Q23" s="7" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
@@ -2119,13 +2122,13 @@
         <v>55513</v>
       </c>
       <c r="E24" s="7" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="F24" s="7" t="s">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="G24" s="7" t="s">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="H24" s="7">
         <v>31</v>
@@ -2134,13 +2137,13 @@
         <v>30584</v>
       </c>
       <c r="J24" s="7" t="s">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="K24" s="7" t="s">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="L24" s="7" t="s">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="M24" s="7">
         <v>85</v>
@@ -2149,13 +2152,13 @@
         <v>86097</v>
       </c>
       <c r="O24" s="7" t="s">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="P24" s="7" t="s">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="Q24" s="7" t="s">
-        <v>156</v>
+        <v>157</v>
       </c>
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
@@ -2170,13 +2173,13 @@
         <v>9102</v>
       </c>
       <c r="E25" s="7" t="s">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="F25" s="7" t="s">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="G25" s="7" t="s">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="H25" s="7">
         <v>8</v>
@@ -2185,13 +2188,13 @@
         <v>5717</v>
       </c>
       <c r="J25" s="7" t="s">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="K25" s="7" t="s">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="L25" s="7" t="s">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="M25" s="7">
         <v>20</v>
@@ -2200,13 +2203,13 @@
         <v>14819</v>
       </c>
       <c r="O25" s="7" t="s">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="P25" s="7" t="s">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="Q25" s="7" t="s">
-        <v>165</v>
+        <v>166</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
@@ -2221,13 +2224,13 @@
         <v>7288</v>
       </c>
       <c r="E26" s="7" t="s">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="F26" s="7" t="s">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="G26" s="7" t="s">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="H26" s="7">
         <v>0</v>
@@ -2242,7 +2245,7 @@
         <v>44</v>
       </c>
       <c r="L26" s="7" t="s">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="M26" s="7">
         <v>6</v>
@@ -2251,13 +2254,13 @@
         <v>7288</v>
       </c>
       <c r="O26" s="7" t="s">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="P26" s="7" t="s">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="Q26" s="7" t="s">
-        <v>172</v>
+        <v>173</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -2313,7 +2316,7 @@
     </row>
     <row r="28" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A28" t="s">
-        <v>173</v>
+        <v>174</v>
       </c>
     </row>
   </sheetData>

--- a/data/trans_orig/IP07A25_2023-Estudios-trans_orig.xlsx
+++ b/data/trans_orig/IP07A25_2023-Estudios-trans_orig.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27328"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27531"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS_menores\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{799BEF0B-5412-4160-8713-DD0EC3F5A902}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{9887397C-6B3B-436D-A3F6-E008878F43F6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{5261F7AD-EA90-4C96-8D88-AE3A53FC6F54}"/>
+    <workbookView xWindow="2688" yWindow="2688" windowWidth="17280" windowHeight="8880" xr2:uid="{511F0A69-5A49-4186-820C-FF694B8095C2}"/>
   </bookViews>
   <sheets>
     <sheet name="2023" sheetId="2" r:id="rId1"/>
@@ -36,15 +36,15 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="264" uniqueCount="175">
-  <si>
-    <t>Menores según frecuencia de haberle ido bien en el colegio en 2023 (Tasa respuesta: 50,16%)</t>
-  </si>
-  <si>
-    <t>Hombre</t>
-  </si>
-  <si>
-    <t>Mujer</t>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="264" uniqueCount="174">
+  <si>
+    <t>Menores según frecuencia de haberle ido bien en el colegio en 2023 (Tasa respuesta: 50,21%)</t>
+  </si>
+  <si>
+    <t>Niña</t>
+  </si>
+  <si>
+    <t>Niño</t>
   </si>
   <si>
     <t>Total</t>
@@ -68,496 +68,493 @@
     <t>Primarios</t>
   </si>
   <si>
-    <t>Muchísimo</t>
-  </si>
-  <si>
-    <t>32,38%</t>
-  </si>
-  <si>
-    <t>17,57%</t>
-  </si>
-  <si>
-    <t>51,47%</t>
-  </si>
-  <si>
-    <t>73,45%</t>
-  </si>
-  <si>
-    <t>56,36%</t>
-  </si>
-  <si>
-    <t>86,44%</t>
-  </si>
-  <si>
-    <t>53,43%</t>
-  </si>
-  <si>
-    <t>40,07%</t>
-  </si>
-  <si>
-    <t>66,75%</t>
-  </si>
-  <si>
-    <t>Mucho</t>
-  </si>
-  <si>
-    <t>33,15%</t>
-  </si>
-  <si>
-    <t>18,33%</t>
-  </si>
-  <si>
-    <t>52,59%</t>
-  </si>
-  <si>
-    <t>17,48%</t>
-  </si>
-  <si>
-    <t>7,09%</t>
-  </si>
-  <si>
-    <t>33,68%</t>
-  </si>
-  <si>
-    <t>25,12%</t>
-  </si>
-  <si>
-    <t>15,45%</t>
-  </si>
-  <si>
-    <t>37,73%</t>
-  </si>
-  <si>
-    <t>Moderadamente</t>
-  </si>
-  <si>
-    <t>25,13%</t>
-  </si>
-  <si>
-    <t>13,06%</t>
-  </si>
-  <si>
-    <t>47,8%</t>
-  </si>
-  <si>
-    <t>9,08%</t>
+    <t>Siempre</t>
+  </si>
+  <si>
+    <t>62,42%</t>
+  </si>
+  <si>
+    <t>38,93%</t>
+  </si>
+  <si>
+    <t>80,6%</t>
+  </si>
+  <si>
+    <t>66,59%</t>
+  </si>
+  <si>
+    <t>46,69%</t>
+  </si>
+  <si>
+    <t>82,96%</t>
+  </si>
+  <si>
+    <t>64,43%</t>
+  </si>
+  <si>
+    <t>49,01%</t>
+  </si>
+  <si>
+    <t>76,93%</t>
+  </si>
+  <si>
+    <t>Casi siempre</t>
+  </si>
+  <si>
+    <t>29,0%</t>
+  </si>
+  <si>
+    <t>12,01%</t>
+  </si>
+  <si>
+    <t>53,58%</t>
+  </si>
+  <si>
+    <t>33,41%</t>
+  </si>
+  <si>
+    <t>17,04%</t>
+  </si>
+  <si>
+    <t>53,31%</t>
+  </si>
+  <si>
+    <t>31,13%</t>
+  </si>
+  <si>
+    <t>19,13%</t>
+  </si>
+  <si>
+    <t>47,33%</t>
+  </si>
+  <si>
+    <t>Algunas veces</t>
+  </si>
+  <si>
+    <t>4,0%</t>
+  </si>
+  <si>
+    <t>0,0%</t>
+  </si>
+  <si>
+    <t>13,9%</t>
+  </si>
+  <si>
+    <t>0%</t>
+  </si>
+  <si>
+    <t>5,78%</t>
+  </si>
+  <si>
+    <t>2,07%</t>
+  </si>
+  <si>
+    <t>8,36%</t>
+  </si>
+  <si>
+    <t>Casi nunca</t>
+  </si>
+  <si>
+    <t>5,45%</t>
+  </si>
+  <si>
+    <t>2,86%</t>
+  </si>
+  <si>
+    <t>Nunca</t>
+  </si>
+  <si>
+    <t>4,58%</t>
+  </si>
+  <si>
+    <t>18,98%</t>
+  </si>
+  <si>
+    <t>2,37%</t>
+  </si>
+  <si>
+    <t>8,16%</t>
+  </si>
+  <si>
+    <t>100%</t>
+  </si>
+  <si>
+    <t>Secundarios</t>
+  </si>
+  <si>
+    <t>53,61%</t>
+  </si>
+  <si>
+    <t>36,93%</t>
+  </si>
+  <si>
+    <t>61,6%</t>
+  </si>
+  <si>
+    <t>59,95%</t>
+  </si>
+  <si>
+    <t>53,78%</t>
+  </si>
+  <si>
+    <t>67,23%</t>
+  </si>
+  <si>
+    <t>57,05%</t>
+  </si>
+  <si>
+    <t>48,27%</t>
+  </si>
+  <si>
+    <t>62,41%</t>
+  </si>
+  <si>
+    <t>39,74%</t>
+  </si>
+  <si>
+    <t>30,83%</t>
+  </si>
+  <si>
+    <t>58,02%</t>
+  </si>
+  <si>
+    <t>32,06%</t>
+  </si>
+  <si>
+    <t>25,94%</t>
+  </si>
+  <si>
+    <t>38,26%</t>
+  </si>
+  <si>
+    <t>35,57%</t>
+  </si>
+  <si>
+    <t>30,19%</t>
+  </si>
+  <si>
+    <t>44,63%</t>
+  </si>
+  <si>
+    <t>4,37%</t>
+  </si>
+  <si>
+    <t>2,5%</t>
+  </si>
+  <si>
+    <t>7,29%</t>
+  </si>
+  <si>
+    <t>3,12%</t>
+  </si>
+  <si>
+    <t>0,92%</t>
+  </si>
+  <si>
+    <t>11,07%</t>
+  </si>
+  <si>
+    <t>3,69%</t>
+  </si>
+  <si>
+    <t>2,02%</t>
+  </si>
+  <si>
+    <t>7,41%</t>
+  </si>
+  <si>
+    <t>1,78%</t>
+  </si>
+  <si>
+    <t>0,62%</t>
+  </si>
+  <si>
+    <t>3,88%</t>
+  </si>
+  <si>
+    <t>1,75%</t>
+  </si>
+  <si>
+    <t>0,79%</t>
+  </si>
+  <si>
+    <t>3,54%</t>
+  </si>
+  <si>
+    <t>1,76%</t>
+  </si>
+  <si>
+    <t>0,97%</t>
+  </si>
+  <si>
+    <t>3,0%</t>
+  </si>
+  <si>
+    <t>0,49%</t>
+  </si>
+  <si>
+    <t>3,13%</t>
+  </si>
+  <si>
+    <t>1,5%</t>
+  </si>
+  <si>
+    <t>5,64%</t>
+  </si>
+  <si>
+    <t>1,93%</t>
+  </si>
+  <si>
+    <t>1,06%</t>
+  </si>
+  <si>
+    <t>3,31%</t>
+  </si>
+  <si>
+    <t>Universitarios</t>
+  </si>
+  <si>
+    <t>68,38%</t>
+  </si>
+  <si>
+    <t>59,51%</t>
+  </si>
+  <si>
+    <t>76,19%</t>
+  </si>
+  <si>
+    <t>65,77%</t>
+  </si>
+  <si>
+    <t>55,52%</t>
+  </si>
+  <si>
+    <t>74,84%</t>
+  </si>
+  <si>
+    <t>66,92%</t>
+  </si>
+  <si>
+    <t>60,22%</t>
+  </si>
+  <si>
+    <t>73,16%</t>
+  </si>
+  <si>
+    <t>22,29%</t>
+  </si>
+  <si>
+    <t>15,52%</t>
+  </si>
+  <si>
+    <t>30,91%</t>
+  </si>
+  <si>
+    <t>29,66%</t>
+  </si>
+  <si>
+    <t>20,87%</t>
+  </si>
+  <si>
+    <t>39,86%</t>
+  </si>
+  <si>
+    <t>26,42%</t>
+  </si>
+  <si>
+    <t>20,56%</t>
+  </si>
+  <si>
+    <t>33,78%</t>
+  </si>
+  <si>
+    <t>3,92%</t>
+  </si>
+  <si>
+    <t>1,44%</t>
+  </si>
+  <si>
+    <t>9,76%</t>
+  </si>
+  <si>
+    <t>1,59%</t>
+  </si>
+  <si>
+    <t>5,09%</t>
+  </si>
+  <si>
+    <t>2,62%</t>
+  </si>
+  <si>
+    <t>5,23%</t>
+  </si>
+  <si>
+    <t>1,7%</t>
+  </si>
+  <si>
+    <t>6,19%</t>
+  </si>
+  <si>
+    <t>1,47%</t>
+  </si>
+  <si>
+    <t>7,38%</t>
+  </si>
+  <si>
+    <t>1,57%</t>
+  </si>
+  <si>
+    <t>0,33%</t>
+  </si>
+  <si>
+    <t>5,25%</t>
+  </si>
+  <si>
+    <t>3,71%</t>
+  </si>
+  <si>
+    <t>8,67%</t>
+  </si>
+  <si>
+    <t>1,51%</t>
+  </si>
+  <si>
+    <t>5,9%</t>
+  </si>
+  <si>
+    <t>2,48%</t>
+  </si>
+  <si>
+    <t>0,91%</t>
+  </si>
+  <si>
+    <t>5,18%</t>
+  </si>
+  <si>
+    <t>57,52%</t>
+  </si>
+  <si>
+    <t>44,79%</t>
+  </si>
+  <si>
+    <t>64,0%</t>
+  </si>
+  <si>
+    <t>61,72%</t>
+  </si>
+  <si>
+    <t>56,38%</t>
+  </si>
+  <si>
+    <t>67,07%</t>
+  </si>
+  <si>
+    <t>59,8%</t>
+  </si>
+  <si>
+    <t>53,09%</t>
+  </si>
+  <si>
+    <t>63,72%</t>
+  </si>
+  <si>
+    <t>35,1%</t>
+  </si>
+  <si>
+    <t>28,32%</t>
+  </si>
+  <si>
+    <t>49,31%</t>
+  </si>
+  <si>
+    <t>31,58%</t>
+  </si>
+  <si>
+    <t>26,61%</t>
+  </si>
+  <si>
+    <t>36,68%</t>
+  </si>
+  <si>
+    <t>33,19%</t>
+  </si>
+  <si>
+    <t>29,47%</t>
+  </si>
+  <si>
+    <t>40,93%</t>
+  </si>
+  <si>
+    <t>4,24%</t>
+  </si>
+  <si>
+    <t>2,56%</t>
+  </si>
+  <si>
+    <t>6,44%</t>
   </si>
   <si>
     <t>2,57%</t>
   </si>
   <si>
-    <t>22,34%</t>
-  </si>
-  <si>
-    <t>16,9%</t>
-  </si>
-  <si>
-    <t>8,51%</t>
-  </si>
-  <si>
-    <t>27,69%</t>
-  </si>
-  <si>
-    <t>Un Poco</t>
-  </si>
-  <si>
-    <t>9,34%</t>
-  </si>
-  <si>
-    <t>0,0%</t>
-  </si>
-  <si>
-    <t>32,63%</t>
-  </si>
-  <si>
-    <t>0%</t>
-  </si>
-  <si>
-    <t>5,45%</t>
-  </si>
-  <si>
-    <t>4,55%</t>
-  </si>
-  <si>
-    <t>16,24%</t>
-  </si>
-  <si>
-    <t>Nada</t>
-  </si>
-  <si>
-    <t>5,61%</t>
-  </si>
-  <si>
-    <t>2,82%</t>
-  </si>
-  <si>
-    <t>100%</t>
-  </si>
-  <si>
-    <t>Secundarios</t>
-  </si>
-  <si>
-    <t>47,61%</t>
-  </si>
-  <si>
-    <t>40,75%</t>
-  </si>
-  <si>
-    <t>53,31%</t>
-  </si>
-  <si>
-    <t>58,49%</t>
-  </si>
-  <si>
-    <t>51,12%</t>
-  </si>
-  <si>
-    <t>64,51%</t>
-  </si>
-  <si>
-    <t>52,62%</t>
-  </si>
-  <si>
-    <t>47,89%</t>
-  </si>
-  <si>
-    <t>56,68%</t>
-  </si>
-  <si>
-    <t>34,01%</t>
-  </si>
-  <si>
-    <t>28,33%</t>
-  </si>
-  <si>
-    <t>39,44%</t>
-  </si>
-  <si>
-    <t>29,2%</t>
-  </si>
-  <si>
-    <t>23,35%</t>
-  </si>
-  <si>
-    <t>34,02%</t>
-  </si>
-  <si>
-    <t>31,79%</t>
-  </si>
-  <si>
-    <t>28,0%</t>
-  </si>
-  <si>
-    <t>35,93%</t>
-  </si>
-  <si>
-    <t>13,81%</t>
-  </si>
-  <si>
-    <t>9,6%</t>
-  </si>
-  <si>
-    <t>22,71%</t>
-  </si>
-  <si>
-    <t>10,33%</t>
-  </si>
-  <si>
-    <t>6,25%</t>
-  </si>
-  <si>
-    <t>24,17%</t>
-  </si>
-  <si>
-    <t>12,21%</t>
-  </si>
-  <si>
-    <t>8,92%</t>
-  </si>
-  <si>
-    <t>18,14%</t>
+    <t>0,94%</t>
+  </si>
+  <si>
+    <t>7,7%</t>
+  </si>
+  <si>
+    <t>3,34%</t>
+  </si>
+  <si>
+    <t>2,16%</t>
+  </si>
+  <si>
+    <t>5,8%</t>
+  </si>
+  <si>
+    <t>1,63%</t>
+  </si>
+  <si>
+    <t>0,71%</t>
+  </si>
+  <si>
+    <t>1,58%</t>
+  </si>
+  <si>
+    <t>0,69%</t>
+  </si>
+  <si>
+    <t>3,11%</t>
+  </si>
+  <si>
+    <t>1,6%</t>
+  </si>
+  <si>
+    <t>0,93%</t>
+  </si>
+  <si>
+    <t>2,65%</t>
+  </si>
+  <si>
+    <t>0,72%</t>
+  </si>
+  <si>
+    <t>2,93%</t>
+  </si>
+  <si>
+    <t>1,43%</t>
+  </si>
+  <si>
+    <t>4,29%</t>
   </si>
   <si>
     <t>2,08%</t>
   </si>
   <si>
-    <t>0,99%</t>
-  </si>
-  <si>
-    <t>3,76%</t>
-  </si>
-  <si>
-    <t>1,98%</t>
-  </si>
-  <si>
-    <t>0,78%</t>
-  </si>
-  <si>
-    <t>4,01%</t>
-  </si>
-  <si>
-    <t>2,03%</t>
-  </si>
-  <si>
-    <t>1,21%</t>
-  </si>
-  <si>
-    <t>3,19%</t>
-  </si>
-  <si>
-    <t>2,49%</t>
-  </si>
-  <si>
-    <t>0,92%</t>
-  </si>
-  <si>
-    <t>6,86%</t>
-  </si>
-  <si>
-    <t>0,58%</t>
-  </si>
-  <si>
-    <t>1,34%</t>
-  </si>
-  <si>
-    <t>0,51%</t>
-  </si>
-  <si>
-    <t>3,37%</t>
-  </si>
-  <si>
-    <t>Universitarios</t>
-  </si>
-  <si>
-    <t>63,96%</t>
-  </si>
-  <si>
-    <t>54,04%</t>
-  </si>
-  <si>
-    <t>71,6%</t>
-  </si>
-  <si>
-    <t>58,12%</t>
-  </si>
-  <si>
-    <t>49,05%</t>
-  </si>
-  <si>
-    <t>68,24%</t>
-  </si>
-  <si>
-    <t>61,28%</t>
-  </si>
-  <si>
-    <t>55,23%</t>
-  </si>
-  <si>
-    <t>67,69%</t>
-  </si>
-  <si>
-    <t>26,99%</t>
-  </si>
-  <si>
-    <t>19,81%</t>
-  </si>
-  <si>
-    <t>36,11%</t>
-  </si>
-  <si>
-    <t>38,31%</t>
-  </si>
-  <si>
-    <t>28,87%</t>
-  </si>
-  <si>
-    <t>47,4%</t>
-  </si>
-  <si>
-    <t>32,18%</t>
-  </si>
-  <si>
-    <t>26,19%</t>
-  </si>
-  <si>
-    <t>37,85%</t>
-  </si>
-  <si>
-    <t>4,27%</t>
-  </si>
-  <si>
-    <t>15,89%</t>
-  </si>
-  <si>
-    <t>2,66%</t>
-  </si>
-  <si>
-    <t>0,71%</t>
-  </si>
-  <si>
-    <t>6,99%</t>
-  </si>
-  <si>
-    <t>5,83%</t>
-  </si>
-  <si>
-    <t>3,13%</t>
-  </si>
-  <si>
-    <t>9,54%</t>
-  </si>
-  <si>
-    <t>0,54%</t>
-  </si>
-  <si>
-    <t>3,27%</t>
-  </si>
-  <si>
-    <t>0,91%</t>
-  </si>
-  <si>
-    <t>4,67%</t>
-  </si>
-  <si>
-    <t>2,52%</t>
-  </si>
-  <si>
-    <t>1,56%</t>
-  </si>
-  <si>
-    <t>1,67%</t>
-  </si>
-  <si>
-    <t>0,81%</t>
-  </si>
-  <si>
-    <t>50,47%</t>
-  </si>
-  <si>
-    <t>44,86%</t>
-  </si>
-  <si>
-    <t>55,3%</t>
-  </si>
-  <si>
-    <t>59,56%</t>
-  </si>
-  <si>
-    <t>53,66%</t>
-  </si>
-  <si>
-    <t>64,21%</t>
-  </si>
-  <si>
-    <t>54,69%</t>
-  </si>
-  <si>
-    <t>50,55%</t>
-  </si>
-  <si>
-    <t>57,92%</t>
-  </si>
-  <si>
-    <t>32,31%</t>
-  </si>
-  <si>
-    <t>27,79%</t>
-  </si>
-  <si>
-    <t>36,77%</t>
-  </si>
-  <si>
-    <t>30,38%</t>
-  </si>
-  <si>
-    <t>26,29%</t>
-  </si>
-  <si>
-    <t>34,83%</t>
-  </si>
-  <si>
-    <t>31,42%</t>
-  </si>
-  <si>
-    <t>28,35%</t>
-  </si>
-  <si>
-    <t>34,71%</t>
-  </si>
-  <si>
-    <t>13,29%</t>
-  </si>
-  <si>
-    <t>10,05%</t>
-  </si>
-  <si>
-    <t>19,18%</t>
-  </si>
-  <si>
-    <t>8,47%</t>
-  </si>
-  <si>
-    <t>5,19%</t>
-  </si>
-  <si>
-    <t>16,95%</t>
-  </si>
-  <si>
-    <t>11,05%</t>
-  </si>
-  <si>
-    <t>8,55%</t>
-  </si>
-  <si>
-    <t>15,54%</t>
-  </si>
-  <si>
-    <t>2,18%</t>
-  </si>
-  <si>
-    <t>1,12%</t>
-  </si>
-  <si>
-    <t>4,04%</t>
-  </si>
-  <si>
-    <t>1,58%</t>
-  </si>
-  <si>
-    <t>0,68%</t>
-  </si>
-  <si>
-    <t>2,98%</t>
-  </si>
-  <si>
-    <t>1,9%</t>
-  </si>
-  <si>
-    <t>1,17%</t>
-  </si>
-  <si>
-    <t>2,99%</t>
-  </si>
-  <si>
-    <t>1,75%</t>
-  </si>
-  <si>
-    <t>0,57%</t>
-  </si>
-  <si>
-    <t>4,59%</t>
-  </si>
-  <si>
-    <t>0,4%</t>
-  </si>
-  <si>
-    <t>0,94%</t>
-  </si>
-  <si>
-    <t>0,37%</t>
-  </si>
-  <si>
-    <t>2,42%</t>
+    <t>1,32%</t>
+  </si>
+  <si>
+    <t>3,08%</t>
   </si>
   <si>
     <t>Fuente: Encuesta Andaluza de Salud (menores)</t>
@@ -972,7 +969,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2CE65F0E-B00C-466D-8C3A-044DCA38396A}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9096B88F-65FD-44CC-9631-7CBBF7CE6CF0}">
   <dimension ref="A1:Q28"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -1090,10 +1087,10 @@
         <v>10</v>
       </c>
       <c r="C4" s="7">
-        <v>12</v>
+        <v>22</v>
       </c>
       <c r="D4" s="7">
-        <v>8621</v>
+        <v>17840</v>
       </c>
       <c r="E4" s="7" t="s">
         <v>11</v>
@@ -1105,10 +1102,10 @@
         <v>13</v>
       </c>
       <c r="H4" s="7">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="I4" s="7">
-        <v>20552</v>
+        <v>17762</v>
       </c>
       <c r="J4" s="7" t="s">
         <v>14</v>
@@ -1120,10 +1117,10 @@
         <v>16</v>
       </c>
       <c r="M4" s="7">
-        <v>35</v>
+        <v>44</v>
       </c>
       <c r="N4" s="7">
-        <v>29173</v>
+        <v>35601</v>
       </c>
       <c r="O4" s="7" t="s">
         <v>17</v>
@@ -1141,10 +1138,10 @@
         <v>20</v>
       </c>
       <c r="C5" s="7">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="D5" s="7">
-        <v>8826</v>
+        <v>8290</v>
       </c>
       <c r="E5" s="7" t="s">
         <v>21</v>
@@ -1156,10 +1153,10 @@
         <v>23</v>
       </c>
       <c r="H5" s="7">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="I5" s="7">
-        <v>4890</v>
+        <v>8910</v>
       </c>
       <c r="J5" s="7" t="s">
         <v>24</v>
@@ -1174,7 +1171,7 @@
         <v>18</v>
       </c>
       <c r="N5" s="7">
-        <v>13716</v>
+        <v>17200</v>
       </c>
       <c r="O5" s="7" t="s">
         <v>27</v>
@@ -1192,10 +1189,10 @@
         <v>30</v>
       </c>
       <c r="C6" s="7">
-        <v>8</v>
+        <v>2</v>
       </c>
       <c r="D6" s="7">
-        <v>6689</v>
+        <v>1143</v>
       </c>
       <c r="E6" s="7" t="s">
         <v>31</v>
@@ -1207,55 +1204,55 @@
         <v>33</v>
       </c>
       <c r="H6" s="7">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="I6" s="7">
-        <v>2540</v>
+        <v>0</v>
       </c>
       <c r="J6" s="7" t="s">
+        <v>32</v>
+      </c>
+      <c r="K6" s="7" t="s">
         <v>34</v>
       </c>
-      <c r="K6" s="7" t="s">
+      <c r="L6" s="7" t="s">
         <v>35</v>
       </c>
-      <c r="L6" s="7" t="s">
+      <c r="M6" s="7">
+        <v>2</v>
+      </c>
+      <c r="N6" s="7">
+        <v>1143</v>
+      </c>
+      <c r="O6" s="7" t="s">
         <v>36</v>
       </c>
-      <c r="M6" s="7">
-        <v>12</v>
-      </c>
-      <c r="N6" s="7">
-        <v>9229</v>
-      </c>
-      <c r="O6" s="7" t="s">
+      <c r="P6" s="7" t="s">
+        <v>32</v>
+      </c>
+      <c r="Q6" s="7" t="s">
         <v>37</v>
-      </c>
-      <c r="P6" s="7" t="s">
-        <v>38</v>
-      </c>
-      <c r="Q6" s="7" t="s">
-        <v>39</v>
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A7" s="1"/>
       <c r="B7" s="5" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="C7" s="7">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="D7" s="7">
-        <v>2486</v>
+        <v>0</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>41</v>
+        <v>32</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>42</v>
+        <v>34</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>43</v>
+        <v>39</v>
       </c>
       <c r="H7" s="7">
         <v>0</v>
@@ -1264,49 +1261,49 @@
         <v>0</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>42</v>
+        <v>32</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>44</v>
+        <v>34</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>45</v>
+        <v>35</v>
       </c>
       <c r="M7" s="7">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="N7" s="7">
-        <v>2486</v>
+        <v>0</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>46</v>
+        <v>32</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>42</v>
+        <v>34</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>47</v>
+        <v>40</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A8" s="1"/>
       <c r="B8" s="5" t="s">
-        <v>48</v>
+        <v>41</v>
       </c>
       <c r="C8" s="7">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="D8" s="7">
-        <v>0</v>
+        <v>1310</v>
       </c>
       <c r="E8" s="7" t="s">
         <v>42</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>44</v>
+        <v>32</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>49</v>
+        <v>43</v>
       </c>
       <c r="H8" s="7">
         <v>0</v>
@@ -1315,28 +1312,28 @@
         <v>0</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>42</v>
+        <v>32</v>
       </c>
       <c r="K8" s="7" t="s">
+        <v>34</v>
+      </c>
+      <c r="L8" s="7" t="s">
+        <v>35</v>
+      </c>
+      <c r="M8" s="7">
+        <v>2</v>
+      </c>
+      <c r="N8" s="7">
+        <v>1310</v>
+      </c>
+      <c r="O8" s="7" t="s">
         <v>44</v>
       </c>
-      <c r="L8" s="7" t="s">
+      <c r="P8" s="7" t="s">
+        <v>32</v>
+      </c>
+      <c r="Q8" s="7" t="s">
         <v>45</v>
-      </c>
-      <c r="M8" s="7">
-        <v>0</v>
-      </c>
-      <c r="N8" s="7">
-        <v>0</v>
-      </c>
-      <c r="O8" s="7" t="s">
-        <v>42</v>
-      </c>
-      <c r="P8" s="7" t="s">
-        <v>44</v>
-      </c>
-      <c r="Q8" s="7" t="s">
-        <v>50</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -1345,102 +1342,102 @@
         <v>3</v>
       </c>
       <c r="C9" s="7">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="D9" s="7">
-        <v>26621</v>
+        <v>28582</v>
       </c>
       <c r="E9" s="7" t="s">
-        <v>51</v>
+        <v>46</v>
       </c>
       <c r="F9" s="7" t="s">
-        <v>51</v>
+        <v>46</v>
       </c>
       <c r="G9" s="7" t="s">
-        <v>51</v>
+        <v>46</v>
       </c>
       <c r="H9" s="7">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="I9" s="7">
-        <v>27983</v>
+        <v>26672</v>
       </c>
       <c r="J9" s="7" t="s">
-        <v>51</v>
+        <v>46</v>
       </c>
       <c r="K9" s="7" t="s">
-        <v>51</v>
+        <v>46</v>
       </c>
       <c r="L9" s="7" t="s">
-        <v>51</v>
+        <v>46</v>
       </c>
       <c r="M9" s="7">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="N9" s="7">
-        <v>54604</v>
+        <v>55254</v>
       </c>
       <c r="O9" s="7" t="s">
-        <v>51</v>
+        <v>46</v>
       </c>
       <c r="P9" s="7" t="s">
-        <v>51</v>
+        <v>46</v>
       </c>
       <c r="Q9" s="7" t="s">
-        <v>51</v>
+        <v>46</v>
       </c>
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A10" s="1" t="s">
-        <v>52</v>
+        <v>47</v>
       </c>
       <c r="B10" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C10" s="7">
-        <v>158</v>
+        <v>199</v>
       </c>
       <c r="D10" s="7">
-        <v>139566</v>
+        <v>139720</v>
       </c>
       <c r="E10" s="7" t="s">
+        <v>48</v>
+      </c>
+      <c r="F10" s="7" t="s">
+        <v>49</v>
+      </c>
+      <c r="G10" s="7" t="s">
+        <v>50</v>
+      </c>
+      <c r="H10" s="7">
+        <v>204</v>
+      </c>
+      <c r="I10" s="7">
+        <v>185379</v>
+      </c>
+      <c r="J10" s="7" t="s">
+        <v>51</v>
+      </c>
+      <c r="K10" s="7" t="s">
+        <v>52</v>
+      </c>
+      <c r="L10" s="7" t="s">
         <v>53</v>
       </c>
-      <c r="F10" s="7" t="s">
+      <c r="M10" s="7">
+        <v>403</v>
+      </c>
+      <c r="N10" s="7">
+        <v>325100</v>
+      </c>
+      <c r="O10" s="7" t="s">
         <v>54</v>
       </c>
-      <c r="G10" s="7" t="s">
+      <c r="P10" s="7" t="s">
         <v>55</v>
       </c>
-      <c r="H10" s="7">
-        <v>192</v>
-      </c>
-      <c r="I10" s="7">
-        <v>146333</v>
-      </c>
-      <c r="J10" s="7" t="s">
+      <c r="Q10" s="7" t="s">
         <v>56</v>
-      </c>
-      <c r="K10" s="7" t="s">
-        <v>57</v>
-      </c>
-      <c r="L10" s="7" t="s">
-        <v>58</v>
-      </c>
-      <c r="M10" s="7">
-        <v>350</v>
-      </c>
-      <c r="N10" s="7">
-        <v>285899</v>
-      </c>
-      <c r="O10" s="7" t="s">
-        <v>59</v>
-      </c>
-      <c r="P10" s="7" t="s">
-        <v>60</v>
-      </c>
-      <c r="Q10" s="7" t="s">
-        <v>61</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -1449,49 +1446,49 @@
         <v>20</v>
       </c>
       <c r="C11" s="7">
-        <v>123</v>
+        <v>106</v>
       </c>
       <c r="D11" s="7">
-        <v>99687</v>
+        <v>103571</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>62</v>
+        <v>57</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>63</v>
+        <v>58</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>64</v>
+        <v>59</v>
       </c>
       <c r="H11" s="7">
         <v>105</v>
       </c>
       <c r="I11" s="7">
-        <v>73052</v>
+        <v>99132</v>
       </c>
       <c r="J11" s="7" t="s">
+        <v>60</v>
+      </c>
+      <c r="K11" s="7" t="s">
+        <v>61</v>
+      </c>
+      <c r="L11" s="7" t="s">
+        <v>62</v>
+      </c>
+      <c r="M11" s="7">
+        <v>211</v>
+      </c>
+      <c r="N11" s="7">
+        <v>202704</v>
+      </c>
+      <c r="O11" s="7" t="s">
+        <v>63</v>
+      </c>
+      <c r="P11" s="7" t="s">
+        <v>64</v>
+      </c>
+      <c r="Q11" s="7" t="s">
         <v>65</v>
-      </c>
-      <c r="K11" s="7" t="s">
-        <v>66</v>
-      </c>
-      <c r="L11" s="7" t="s">
-        <v>67</v>
-      </c>
-      <c r="M11" s="7">
-        <v>228</v>
-      </c>
-      <c r="N11" s="7">
-        <v>172739</v>
-      </c>
-      <c r="O11" s="7" t="s">
-        <v>68</v>
-      </c>
-      <c r="P11" s="7" t="s">
-        <v>69</v>
-      </c>
-      <c r="Q11" s="7" t="s">
-        <v>70</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -1500,151 +1497,151 @@
         <v>30</v>
       </c>
       <c r="C12" s="7">
-        <v>36</v>
+        <v>15</v>
       </c>
       <c r="D12" s="7">
-        <v>40492</v>
+        <v>11395</v>
       </c>
       <c r="E12" s="7" t="s">
+        <v>66</v>
+      </c>
+      <c r="F12" s="7" t="s">
+        <v>67</v>
+      </c>
+      <c r="G12" s="7" t="s">
+        <v>68</v>
+      </c>
+      <c r="H12" s="7">
+        <v>6</v>
+      </c>
+      <c r="I12" s="7">
+        <v>9638</v>
+      </c>
+      <c r="J12" s="7" t="s">
+        <v>69</v>
+      </c>
+      <c r="K12" s="7" t="s">
+        <v>70</v>
+      </c>
+      <c r="L12" s="7" t="s">
         <v>71</v>
       </c>
-      <c r="F12" s="7" t="s">
+      <c r="M12" s="7">
+        <v>21</v>
+      </c>
+      <c r="N12" s="7">
+        <v>21033</v>
+      </c>
+      <c r="O12" s="7" t="s">
         <v>72</v>
       </c>
-      <c r="G12" s="7" t="s">
+      <c r="P12" s="7" t="s">
         <v>73</v>
       </c>
-      <c r="H12" s="7">
-        <v>24</v>
-      </c>
-      <c r="I12" s="7">
-        <v>25837</v>
-      </c>
-      <c r="J12" s="7" t="s">
+      <c r="Q12" s="7" t="s">
         <v>74</v>
-      </c>
-      <c r="K12" s="7" t="s">
-        <v>75</v>
-      </c>
-      <c r="L12" s="7" t="s">
-        <v>76</v>
-      </c>
-      <c r="M12" s="7">
-        <v>60</v>
-      </c>
-      <c r="N12" s="7">
-        <v>66329</v>
-      </c>
-      <c r="O12" s="7" t="s">
-        <v>77</v>
-      </c>
-      <c r="P12" s="7" t="s">
-        <v>78</v>
-      </c>
-      <c r="Q12" s="7" t="s">
-        <v>79</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A13" s="1"/>
       <c r="B13" s="5" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="C13" s="7">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="D13" s="7">
-        <v>6084</v>
+        <v>4636</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>80</v>
+        <v>75</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>81</v>
+        <v>76</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>82</v>
+        <v>77</v>
       </c>
       <c r="H13" s="7">
         <v>7</v>
       </c>
       <c r="I13" s="7">
-        <v>4958</v>
+        <v>5403</v>
       </c>
       <c r="J13" s="7" t="s">
+        <v>78</v>
+      </c>
+      <c r="K13" s="7" t="s">
+        <v>79</v>
+      </c>
+      <c r="L13" s="7" t="s">
+        <v>80</v>
+      </c>
+      <c r="M13" s="7">
+        <v>13</v>
+      </c>
+      <c r="N13" s="7">
+        <v>10039</v>
+      </c>
+      <c r="O13" s="7" t="s">
+        <v>81</v>
+      </c>
+      <c r="P13" s="7" t="s">
+        <v>82</v>
+      </c>
+      <c r="Q13" s="7" t="s">
         <v>83</v>
-      </c>
-      <c r="K13" s="7" t="s">
-        <v>84</v>
-      </c>
-      <c r="L13" s="7" t="s">
-        <v>85</v>
-      </c>
-      <c r="M13" s="7">
-        <v>16</v>
-      </c>
-      <c r="N13" s="7">
-        <v>11041</v>
-      </c>
-      <c r="O13" s="7" t="s">
-        <v>86</v>
-      </c>
-      <c r="P13" s="7" t="s">
-        <v>87</v>
-      </c>
-      <c r="Q13" s="7" t="s">
-        <v>88</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A14" s="1"/>
       <c r="B14" s="5" t="s">
-        <v>48</v>
+        <v>41</v>
       </c>
       <c r="C14" s="7">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="D14" s="7">
-        <v>7288</v>
+        <v>1282</v>
       </c>
       <c r="E14" s="7" t="s">
+        <v>84</v>
+      </c>
+      <c r="F14" s="7" t="s">
+        <v>32</v>
+      </c>
+      <c r="G14" s="7" t="s">
+        <v>75</v>
+      </c>
+      <c r="H14" s="7">
+        <v>12</v>
+      </c>
+      <c r="I14" s="7">
+        <v>9693</v>
+      </c>
+      <c r="J14" s="7" t="s">
+        <v>85</v>
+      </c>
+      <c r="K14" s="7" t="s">
+        <v>86</v>
+      </c>
+      <c r="L14" s="7" t="s">
+        <v>87</v>
+      </c>
+      <c r="M14" s="7">
+        <v>14</v>
+      </c>
+      <c r="N14" s="7">
+        <v>10975</v>
+      </c>
+      <c r="O14" s="7" t="s">
+        <v>88</v>
+      </c>
+      <c r="P14" s="7" t="s">
         <v>89</v>
       </c>
-      <c r="F14" s="7" t="s">
+      <c r="Q14" s="7" t="s">
         <v>90</v>
-      </c>
-      <c r="G14" s="7" t="s">
-        <v>91</v>
-      </c>
-      <c r="H14" s="7">
-        <v>0</v>
-      </c>
-      <c r="I14" s="7">
-        <v>0</v>
-      </c>
-      <c r="J14" s="7" t="s">
-        <v>42</v>
-      </c>
-      <c r="K14" s="7" t="s">
-        <v>44</v>
-      </c>
-      <c r="L14" s="7" t="s">
-        <v>92</v>
-      </c>
-      <c r="M14" s="7">
-        <v>6</v>
-      </c>
-      <c r="N14" s="7">
-        <v>7288</v>
-      </c>
-      <c r="O14" s="7" t="s">
-        <v>93</v>
-      </c>
-      <c r="P14" s="7" t="s">
-        <v>94</v>
-      </c>
-      <c r="Q14" s="7" t="s">
-        <v>95</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -1653,102 +1650,102 @@
         <v>3</v>
       </c>
       <c r="C15" s="7">
-        <v>332</v>
+        <v>328</v>
       </c>
       <c r="D15" s="7">
-        <v>293117</v>
+        <v>260604</v>
       </c>
       <c r="E15" s="7" t="s">
-        <v>51</v>
+        <v>46</v>
       </c>
       <c r="F15" s="7" t="s">
-        <v>51</v>
+        <v>46</v>
       </c>
       <c r="G15" s="7" t="s">
-        <v>51</v>
+        <v>46</v>
       </c>
       <c r="H15" s="7">
-        <v>328</v>
+        <v>334</v>
       </c>
       <c r="I15" s="7">
-        <v>250180</v>
+        <v>309246</v>
       </c>
       <c r="J15" s="7" t="s">
-        <v>51</v>
+        <v>46</v>
       </c>
       <c r="K15" s="7" t="s">
-        <v>51</v>
+        <v>46</v>
       </c>
       <c r="L15" s="7" t="s">
-        <v>51</v>
+        <v>46</v>
       </c>
       <c r="M15" s="7">
-        <v>660</v>
+        <v>662</v>
       </c>
       <c r="N15" s="7">
-        <v>543297</v>
+        <v>569851</v>
       </c>
       <c r="O15" s="7" t="s">
-        <v>51</v>
+        <v>46</v>
       </c>
       <c r="P15" s="7" t="s">
-        <v>51</v>
+        <v>46</v>
       </c>
       <c r="Q15" s="7" t="s">
-        <v>51</v>
+        <v>46</v>
       </c>
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
-        <v>96</v>
+        <v>91</v>
       </c>
       <c r="B16" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C16" s="7">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="D16" s="7">
-        <v>62608</v>
+        <v>55237</v>
       </c>
       <c r="E16" s="7" t="s">
+        <v>92</v>
+      </c>
+      <c r="F16" s="7" t="s">
+        <v>93</v>
+      </c>
+      <c r="G16" s="7" t="s">
+        <v>94</v>
+      </c>
+      <c r="H16" s="7">
+        <v>82</v>
+      </c>
+      <c r="I16" s="7">
+        <v>67707</v>
+      </c>
+      <c r="J16" s="7" t="s">
+        <v>95</v>
+      </c>
+      <c r="K16" s="7" t="s">
+        <v>96</v>
+      </c>
+      <c r="L16" s="7" t="s">
         <v>97</v>
       </c>
-      <c r="F16" s="7" t="s">
+      <c r="M16" s="7">
+        <v>160</v>
+      </c>
+      <c r="N16" s="7">
+        <v>122944</v>
+      </c>
+      <c r="O16" s="7" t="s">
         <v>98</v>
       </c>
-      <c r="G16" s="7" t="s">
+      <c r="P16" s="7" t="s">
         <v>99</v>
       </c>
-      <c r="H16" s="7">
-        <v>66</v>
-      </c>
-      <c r="I16" s="7">
-        <v>48250</v>
-      </c>
-      <c r="J16" s="7" t="s">
+      <c r="Q16" s="7" t="s">
         <v>100</v>
-      </c>
-      <c r="K16" s="7" t="s">
-        <v>101</v>
-      </c>
-      <c r="L16" s="7" t="s">
-        <v>102</v>
-      </c>
-      <c r="M16" s="7">
-        <v>142</v>
-      </c>
-      <c r="N16" s="7">
-        <v>110858</v>
-      </c>
-      <c r="O16" s="7" t="s">
-        <v>103</v>
-      </c>
-      <c r="P16" s="7" t="s">
-        <v>104</v>
-      </c>
-      <c r="Q16" s="7" t="s">
-        <v>105</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -1757,49 +1754,49 @@
         <v>20</v>
       </c>
       <c r="C17" s="7">
+        <v>25</v>
+      </c>
+      <c r="D17" s="7">
+        <v>18005</v>
+      </c>
+      <c r="E17" s="7" t="s">
+        <v>101</v>
+      </c>
+      <c r="F17" s="7" t="s">
+        <v>102</v>
+      </c>
+      <c r="G17" s="7" t="s">
+        <v>103</v>
+      </c>
+      <c r="H17" s="7">
         <v>35</v>
       </c>
-      <c r="D17" s="7">
-        <v>26420</v>
-      </c>
-      <c r="E17" s="7" t="s">
+      <c r="I17" s="7">
+        <v>30529</v>
+      </c>
+      <c r="J17" s="7" t="s">
+        <v>104</v>
+      </c>
+      <c r="K17" s="7" t="s">
+        <v>105</v>
+      </c>
+      <c r="L17" s="7" t="s">
         <v>106</v>
       </c>
-      <c r="F17" s="7" t="s">
+      <c r="M17" s="7">
+        <v>60</v>
+      </c>
+      <c r="N17" s="7">
+        <v>48535</v>
+      </c>
+      <c r="O17" s="7" t="s">
         <v>107</v>
       </c>
-      <c r="G17" s="7" t="s">
+      <c r="P17" s="7" t="s">
         <v>108</v>
       </c>
-      <c r="H17" s="7">
-        <v>44</v>
-      </c>
-      <c r="I17" s="7">
-        <v>31802</v>
-      </c>
-      <c r="J17" s="7" t="s">
+      <c r="Q17" s="7" t="s">
         <v>109</v>
-      </c>
-      <c r="K17" s="7" t="s">
-        <v>110</v>
-      </c>
-      <c r="L17" s="7" t="s">
-        <v>111</v>
-      </c>
-      <c r="M17" s="7">
-        <v>79</v>
-      </c>
-      <c r="N17" s="7">
-        <v>58222</v>
-      </c>
-      <c r="O17" s="7" t="s">
-        <v>112</v>
-      </c>
-      <c r="P17" s="7" t="s">
-        <v>113</v>
-      </c>
-      <c r="Q17" s="7" t="s">
-        <v>114</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -1808,148 +1805,148 @@
         <v>30</v>
       </c>
       <c r="C18" s="7">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="D18" s="7">
-        <v>8332</v>
+        <v>3166</v>
       </c>
       <c r="E18" s="7" t="s">
-        <v>38</v>
+        <v>110</v>
       </c>
       <c r="F18" s="7" t="s">
+        <v>111</v>
+      </c>
+      <c r="G18" s="7" t="s">
+        <v>112</v>
+      </c>
+      <c r="H18" s="7">
+        <v>2</v>
+      </c>
+      <c r="I18" s="7">
+        <v>1638</v>
+      </c>
+      <c r="J18" s="7" t="s">
+        <v>113</v>
+      </c>
+      <c r="K18" s="7" t="s">
+        <v>32</v>
+      </c>
+      <c r="L18" s="7" t="s">
+        <v>114</v>
+      </c>
+      <c r="M18" s="7">
+        <v>7</v>
+      </c>
+      <c r="N18" s="7">
+        <v>4805</v>
+      </c>
+      <c r="O18" s="7" t="s">
         <v>115</v>
       </c>
-      <c r="G18" s="7" t="s">
+      <c r="P18" s="7" t="s">
+        <v>70</v>
+      </c>
+      <c r="Q18" s="7" t="s">
         <v>116</v>
-      </c>
-      <c r="H18" s="7">
-        <v>3</v>
-      </c>
-      <c r="I18" s="7">
-        <v>2206</v>
-      </c>
-      <c r="J18" s="7" t="s">
-        <v>117</v>
-      </c>
-      <c r="K18" s="7" t="s">
-        <v>118</v>
-      </c>
-      <c r="L18" s="7" t="s">
-        <v>119</v>
-      </c>
-      <c r="M18" s="7">
-        <v>13</v>
-      </c>
-      <c r="N18" s="7">
-        <v>10538</v>
-      </c>
-      <c r="O18" s="7" t="s">
-        <v>120</v>
-      </c>
-      <c r="P18" s="7" t="s">
-        <v>121</v>
-      </c>
-      <c r="Q18" s="7" t="s">
-        <v>122</v>
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A19" s="1"/>
       <c r="B19" s="5" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="C19" s="7">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D19" s="7">
-        <v>533</v>
+        <v>1377</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>123</v>
+        <v>117</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>42</v>
+        <v>32</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>124</v>
+        <v>118</v>
       </c>
       <c r="H19" s="7">
         <v>1</v>
       </c>
       <c r="I19" s="7">
-        <v>759</v>
+        <v>1516</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>125</v>
+        <v>119</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>42</v>
+        <v>32</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>126</v>
+        <v>120</v>
       </c>
       <c r="M19" s="7">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="N19" s="7">
-        <v>1292</v>
+        <v>2893</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>118</v>
+        <v>121</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>42</v>
+        <v>122</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>127</v>
+        <v>123</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A20" s="1"/>
       <c r="B20" s="5" t="s">
-        <v>48</v>
+        <v>41</v>
       </c>
       <c r="C20" s="7">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="D20" s="7">
-        <v>0</v>
+        <v>2996</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>42</v>
+        <v>124</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>44</v>
+        <v>82</v>
       </c>
       <c r="G20" s="7" t="s">
+        <v>125</v>
+      </c>
+      <c r="H20" s="7">
+        <v>2</v>
+      </c>
+      <c r="I20" s="7">
+        <v>1552</v>
+      </c>
+      <c r="J20" s="7" t="s">
+        <v>126</v>
+      </c>
+      <c r="K20" s="7" t="s">
+        <v>32</v>
+      </c>
+      <c r="L20" s="7" t="s">
+        <v>127</v>
+      </c>
+      <c r="M20" s="7">
+        <v>6</v>
+      </c>
+      <c r="N20" s="7">
+        <v>4547</v>
+      </c>
+      <c r="O20" s="7" t="s">
         <v>128</v>
       </c>
-      <c r="H20" s="7">
-        <v>0</v>
-      </c>
-      <c r="I20" s="7">
-        <v>0</v>
-      </c>
-      <c r="J20" s="7" t="s">
-        <v>42</v>
-      </c>
-      <c r="K20" s="7" t="s">
-        <v>44</v>
-      </c>
-      <c r="L20" s="7" t="s">
+      <c r="P20" s="7" t="s">
         <v>129</v>
-      </c>
-      <c r="M20" s="7">
-        <v>0</v>
-      </c>
-      <c r="N20" s="7">
-        <v>0</v>
-      </c>
-      <c r="O20" s="7" t="s">
-        <v>42</v>
-      </c>
-      <c r="P20" s="7" t="s">
-        <v>44</v>
       </c>
       <c r="Q20" s="7" t="s">
         <v>130</v>
@@ -1961,49 +1958,49 @@
         <v>3</v>
       </c>
       <c r="C21" s="7">
+        <v>114</v>
+      </c>
+      <c r="D21" s="7">
+        <v>80781</v>
+      </c>
+      <c r="E21" s="7" t="s">
+        <v>46</v>
+      </c>
+      <c r="F21" s="7" t="s">
+        <v>46</v>
+      </c>
+      <c r="G21" s="7" t="s">
+        <v>46</v>
+      </c>
+      <c r="H21" s="7">
         <v>122</v>
       </c>
-      <c r="D21" s="7">
-        <v>97893</v>
-      </c>
-      <c r="E21" s="7" t="s">
-        <v>51</v>
-      </c>
-      <c r="F21" s="7" t="s">
-        <v>51</v>
-      </c>
-      <c r="G21" s="7" t="s">
-        <v>51</v>
-      </c>
-      <c r="H21" s="7">
-        <v>114</v>
-      </c>
       <c r="I21" s="7">
-        <v>83017</v>
+        <v>102943</v>
       </c>
       <c r="J21" s="7" t="s">
-        <v>51</v>
+        <v>46</v>
       </c>
       <c r="K21" s="7" t="s">
-        <v>51</v>
+        <v>46</v>
       </c>
       <c r="L21" s="7" t="s">
-        <v>51</v>
+        <v>46</v>
       </c>
       <c r="M21" s="7">
         <v>236</v>
       </c>
       <c r="N21" s="7">
-        <v>180910</v>
+        <v>183724</v>
       </c>
       <c r="O21" s="7" t="s">
-        <v>51</v>
+        <v>46</v>
       </c>
       <c r="P21" s="7" t="s">
-        <v>51</v>
+        <v>46</v>
       </c>
       <c r="Q21" s="7" t="s">
-        <v>51</v>
+        <v>46</v>
       </c>
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
@@ -2014,10 +2011,10 @@
         <v>10</v>
       </c>
       <c r="C22" s="7">
-        <v>246</v>
+        <v>299</v>
       </c>
       <c r="D22" s="7">
-        <v>210795</v>
+        <v>212797</v>
       </c>
       <c r="E22" s="7" t="s">
         <v>131</v>
@@ -2029,10 +2026,10 @@
         <v>133</v>
       </c>
       <c r="H22" s="7">
-        <v>281</v>
+        <v>308</v>
       </c>
       <c r="I22" s="7">
-        <v>215135</v>
+        <v>270849</v>
       </c>
       <c r="J22" s="7" t="s">
         <v>134</v>
@@ -2044,10 +2041,10 @@
         <v>136</v>
       </c>
       <c r="M22" s="7">
-        <v>527</v>
+        <v>607</v>
       </c>
       <c r="N22" s="7">
-        <v>425930</v>
+        <v>483645</v>
       </c>
       <c r="O22" s="7" t="s">
         <v>137</v>
@@ -2065,10 +2062,10 @@
         <v>20</v>
       </c>
       <c r="C23" s="7">
-        <v>169</v>
+        <v>139</v>
       </c>
       <c r="D23" s="7">
-        <v>134933</v>
+        <v>129866</v>
       </c>
       <c r="E23" s="7" t="s">
         <v>140</v>
@@ -2080,10 +2077,10 @@
         <v>142</v>
       </c>
       <c r="H23" s="7">
-        <v>156</v>
+        <v>150</v>
       </c>
       <c r="I23" s="7">
-        <v>109744</v>
+        <v>138573</v>
       </c>
       <c r="J23" s="7" t="s">
         <v>143</v>
@@ -2095,10 +2092,10 @@
         <v>145</v>
       </c>
       <c r="M23" s="7">
-        <v>325</v>
+        <v>289</v>
       </c>
       <c r="N23" s="7">
-        <v>244677</v>
+        <v>268438</v>
       </c>
       <c r="O23" s="7" t="s">
         <v>146</v>
@@ -2116,10 +2113,10 @@
         <v>30</v>
       </c>
       <c r="C24" s="7">
-        <v>54</v>
+        <v>22</v>
       </c>
       <c r="D24" s="7">
-        <v>55513</v>
+        <v>15705</v>
       </c>
       <c r="E24" s="7" t="s">
         <v>149</v>
@@ -2131,10 +2128,10 @@
         <v>151</v>
       </c>
       <c r="H24" s="7">
-        <v>31</v>
+        <v>8</v>
       </c>
       <c r="I24" s="7">
-        <v>30584</v>
+        <v>11276</v>
       </c>
       <c r="J24" s="7" t="s">
         <v>152</v>
@@ -2146,10 +2143,10 @@
         <v>154</v>
       </c>
       <c r="M24" s="7">
-        <v>85</v>
+        <v>30</v>
       </c>
       <c r="N24" s="7">
-        <v>86097</v>
+        <v>26981</v>
       </c>
       <c r="O24" s="7" t="s">
         <v>155</v>
@@ -2164,13 +2161,13 @@
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A25" s="1"/>
       <c r="B25" s="5" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="C25" s="7">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="D25" s="7">
-        <v>9102</v>
+        <v>6013</v>
       </c>
       <c r="E25" s="7" t="s">
         <v>158</v>
@@ -2179,88 +2176,88 @@
         <v>159</v>
       </c>
       <c r="G25" s="7" t="s">
-        <v>160</v>
+        <v>85</v>
       </c>
       <c r="H25" s="7">
         <v>8</v>
       </c>
       <c r="I25" s="7">
-        <v>5717</v>
+        <v>6920</v>
       </c>
       <c r="J25" s="7" t="s">
+        <v>160</v>
+      </c>
+      <c r="K25" s="7" t="s">
         <v>161</v>
       </c>
-      <c r="K25" s="7" t="s">
+      <c r="L25" s="7" t="s">
         <v>162</v>
       </c>
-      <c r="L25" s="7" t="s">
+      <c r="M25" s="7">
+        <v>16</v>
+      </c>
+      <c r="N25" s="7">
+        <v>12932</v>
+      </c>
+      <c r="O25" s="7" t="s">
         <v>163</v>
       </c>
-      <c r="M25" s="7">
-        <v>20</v>
-      </c>
-      <c r="N25" s="7">
-        <v>14819</v>
-      </c>
-      <c r="O25" s="7" t="s">
+      <c r="P25" s="7" t="s">
         <v>164</v>
       </c>
-      <c r="P25" s="7" t="s">
+      <c r="Q25" s="7" t="s">
         <v>165</v>
-      </c>
-      <c r="Q25" s="7" t="s">
-        <v>166</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A26" s="1"/>
       <c r="B26" s="5" t="s">
-        <v>48</v>
+        <v>41</v>
       </c>
       <c r="C26" s="7">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="D26" s="7">
-        <v>7288</v>
+        <v>5587</v>
       </c>
       <c r="E26" s="7" t="s">
+        <v>126</v>
+      </c>
+      <c r="F26" s="7" t="s">
+        <v>166</v>
+      </c>
+      <c r="G26" s="7" t="s">
         <v>167</v>
       </c>
-      <c r="F26" s="7" t="s">
+      <c r="H26" s="7">
+        <v>14</v>
+      </c>
+      <c r="I26" s="7">
+        <v>11245</v>
+      </c>
+      <c r="J26" s="7" t="s">
+        <v>150</v>
+      </c>
+      <c r="K26" s="7" t="s">
         <v>168</v>
       </c>
-      <c r="G26" s="7" t="s">
+      <c r="L26" s="7" t="s">
         <v>169</v>
       </c>
-      <c r="H26" s="7">
-        <v>0</v>
-      </c>
-      <c r="I26" s="7">
-        <v>0</v>
-      </c>
-      <c r="J26" s="7" t="s">
-        <v>42</v>
-      </c>
-      <c r="K26" s="7" t="s">
-        <v>44</v>
-      </c>
-      <c r="L26" s="7" t="s">
+      <c r="M26" s="7">
+        <v>22</v>
+      </c>
+      <c r="N26" s="7">
+        <v>16832</v>
+      </c>
+      <c r="O26" s="7" t="s">
         <v>170</v>
       </c>
-      <c r="M26" s="7">
-        <v>6</v>
-      </c>
-      <c r="N26" s="7">
-        <v>7288</v>
-      </c>
-      <c r="O26" s="7" t="s">
+      <c r="P26" s="7" t="s">
         <v>171</v>
       </c>
-      <c r="P26" s="7" t="s">
+      <c r="Q26" s="7" t="s">
         <v>172</v>
-      </c>
-      <c r="Q26" s="7" t="s">
-        <v>173</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -2269,54 +2266,54 @@
         <v>3</v>
       </c>
       <c r="C27" s="7">
-        <v>487</v>
+        <v>476</v>
       </c>
       <c r="D27" s="7">
-        <v>417631</v>
+        <v>369967</v>
       </c>
       <c r="E27" s="7" t="s">
-        <v>51</v>
+        <v>46</v>
       </c>
       <c r="F27" s="7" t="s">
-        <v>51</v>
+        <v>46</v>
       </c>
       <c r="G27" s="7" t="s">
-        <v>51</v>
+        <v>46</v>
       </c>
       <c r="H27" s="7">
-        <v>476</v>
+        <v>488</v>
       </c>
       <c r="I27" s="7">
-        <v>361180</v>
+        <v>438862</v>
       </c>
       <c r="J27" s="7" t="s">
-        <v>51</v>
+        <v>46</v>
       </c>
       <c r="K27" s="7" t="s">
-        <v>51</v>
+        <v>46</v>
       </c>
       <c r="L27" s="7" t="s">
-        <v>51</v>
+        <v>46</v>
       </c>
       <c r="M27" s="7">
-        <v>963</v>
+        <v>964</v>
       </c>
       <c r="N27" s="7">
-        <v>778811</v>
+        <v>808828</v>
       </c>
       <c r="O27" s="7" t="s">
-        <v>51</v>
+        <v>46</v>
       </c>
       <c r="P27" s="7" t="s">
-        <v>51</v>
+        <v>46</v>
       </c>
       <c r="Q27" s="7" t="s">
-        <v>51</v>
+        <v>46</v>
       </c>
     </row>
     <row r="28" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A28" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
     </row>
   </sheetData>
